--- a/inactivation_scenarios.xlsx
+++ b/inactivation_scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/georgios_pampoukis_wur_nl/Documents/PhD components/Deliverables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/georgios_pampoukis_wur_nl/Documents/PhD components/3rd year/qmra_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1023" documentId="8_{EE042F72-7752-4F3F-B423-04B395C0905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D6E218C-F026-4F29-AFC1-3C9EF8D6AE6E}"/>
+  <xr:revisionPtr revIDLastSave="1038" documentId="8_{EE042F72-7752-4F3F-B423-04B395C0905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B99A686-063D-4A62-BC51-65DA1E0D574D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{068B2558-D028-447E-BBE2-4CDF970AAB4D}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEECA479-5C12-4697-986C-4E65010F9F27}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -585,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
@@ -649,7 +649,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -661,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6">
         <f>B2+(B3-E2)/B4</f>
-        <v>-2.4842857142857144</v>
+        <v>-1.9485714285714286</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="E6">
         <f>E4*60</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6">
         <f>H2+(H3-K2)/H4</f>
-        <v>-0.6903703703703703</v>
+        <v>-0.50518518518518518</v>
       </c>
       <c r="K6">
         <f>60*K4</f>
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -760,14 +760,14 @@
       </c>
       <c r="B7">
         <f>10^B6</f>
-        <v>3.278795162898284E-3</v>
+        <v>1.125715306862485E-2</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7">
         <f>10^H6</f>
-        <v>0.20399974738253523</v>
+        <v>0.31247466765083171</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -795,14 +795,14 @@
       </c>
       <c r="B8">
         <f>E4/B7</f>
-        <v>152.49504014701122</v>
+        <v>8.8832406728760773</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f>K4/H7</f>
-        <v>24.509834272608803</v>
+        <v>3.2002594242853282</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -859,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>79.5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -876,13 +876,7 @@
       </c>
       <c r="B16">
         <f>B12+E12/40</f>
-        <v>2.7175000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <f>152/5</f>
-        <v>30.4</v>
+        <v>3.3050000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/inactivation_scenarios.xlsx
+++ b/inactivation_scenarios.xlsx
@@ -8,40 +8,68 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/georgios_pampoukis_wur_nl/Documents/PhD components/3rd year/qmra_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1038" documentId="8_{EE042F72-7752-4F3F-B423-04B395C0905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B99A686-063D-4A62-BC51-65DA1E0D574D}"/>
+  <xr:revisionPtr revIDLastSave="1285" documentId="8_{EE042F72-7752-4F3F-B423-04B395C0905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5748ED2D-B3C3-4A11-A37C-65BD2AD675C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{068B2558-D028-447E-BBE2-4CDF970AAB4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{068B2558-D028-447E-BBE2-4CDF970AAB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="5 log" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'5 log'!$E$12</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$E$12</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'5 log'!$B$16</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$16</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
   <si>
     <t>intercept</t>
   </si>
@@ -179,6 +207,15 @@
   </si>
   <si>
     <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>Energy usage (kJ/kg)</t>
+  </si>
+  <si>
+    <t>Ein (kJ/L)</t>
+  </si>
+  <si>
+    <t>Ein (kJ/kg)</t>
   </si>
 </sst>
 </file>
@@ -532,23 +569,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEECA479-5C12-4697-986C-4E65010F9F27}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.140625" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -562,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -600,7 +637,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -638,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -688,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="S5" t="s">
         <v>7</v>
       </c>
@@ -702,7 +739,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -754,7 +791,7 @@
         <v>1.0831995960374603</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -789,7 +826,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -812,7 +849,7 @@
         <v>4.9999941063902922</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="S9" t="s">
         <v>10</v>
       </c>
@@ -827,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>12</v>
       </c>
@@ -836,7 +873,7 @@
         <v>1.0000013952381563</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -848,7 +885,7 @@
         <v>4.9999930238189521</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -862,7 +899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -870,13 +907,400 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
         <f>B12+E12/40</f>
         <v>3.3050000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00858E82-C6EF-4FCF-9EFA-B77E98AA03E4}">
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>-1.77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>-0.32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>600</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1.6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>-2.3E-3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3">
+        <v>482.60847308141894</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>-1.3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>5.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1.6393875814491421E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>270</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>1.0199997369126761</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>0.47</v>
+      </c>
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <f>B2+(B3-E2)/B4</f>
+        <v>-2.4842857142857144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <f>E4*60</f>
+        <v>0.98363254886948526</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <f>H2+(H3-K2)/H4</f>
+        <v>-0.6903703703703703</v>
+      </c>
+      <c r="K6">
+        <f>60*K4</f>
+        <v>61.199984214760562</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <f>N2+(N3*Q3)+(N4*Q4)</f>
+        <v>5.1191273664485948E-7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>-1.5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6">
+        <v>1.0831995960374603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <f>10^B6</f>
+        <v>3.278795162898284E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <f>10^H6</f>
+        <v>0.20399974738253523</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <f>10^N6</f>
+        <v>1.0000011787233309</v>
+      </c>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>-0.12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <f>E4/B7</f>
+        <v>4.9999695009919707</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <f>K4/H7</f>
+        <v>5.0000049019668538</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <f>Q6/N7</f>
+        <v>4.9999941063902922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <f>((133*0.983633)/30)</f>
+        <v>4.3607729666666666</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <f>((633*1.019999)/5)</f>
+        <v>129.13187340000002</v>
+      </c>
+      <c r="S9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <f>T2+(T3*W3)+(T4*W4)+(T5*W5)+(T6*W6)+(T7*W7)</f>
+        <v>6.0594380951739524E-7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <f>10^T9</f>
+        <v>1.0000013952381563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11">
+        <f>W9/T10</f>
+        <v>4.9999930238189521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>170.80013219999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <f>E12/1.03</f>
+        <v>165.82537106796113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <f>((422*165.8254)/188)</f>
+        <v>372.22509999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>B12+E12/40</f>
+        <v>5.0000033049999999</v>
       </c>
     </row>
   </sheetData>

--- a/inactivation_scenarios.xlsx
+++ b/inactivation_scenarios.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/georgios_pampoukis_wur_nl/Documents/PhD components/3rd year/qmra_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1285" documentId="8_{EE042F72-7752-4F3F-B423-04B395C0905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5748ED2D-B3C3-4A11-A37C-65BD2AD675C8}"/>
+  <xr:revisionPtr revIDLastSave="1368" documentId="8_{EE042F72-7752-4F3F-B423-04B395C0905B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB12C21-4FA5-4EFC-AA26-D73645E05FA2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{068B2558-D028-447E-BBE2-4CDF970AAB4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{068B2558-D028-447E-BBE2-4CDF970AAB4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="5 log" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'5 log'!$E$12</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'5 log'!$E$26</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$E$12</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -45,7 +45,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'5 log'!$B$16</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'5 log'!$B$30</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$16</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
   <si>
     <t>intercept</t>
   </si>
@@ -216,6 +216,63 @@
   </si>
   <si>
     <t>Ein (kJ/kg)</t>
+  </si>
+  <si>
+    <t>error of the regression</t>
+  </si>
+  <si>
+    <t>logDUSlower</t>
+  </si>
+  <si>
+    <t>logDUSupper</t>
+  </si>
+  <si>
+    <t>logDNTPlower</t>
+  </si>
+  <si>
+    <t>logDNTPupper</t>
+  </si>
+  <si>
+    <t>DUSlower</t>
+  </si>
+  <si>
+    <t>DUSupper</t>
+  </si>
+  <si>
+    <t>DNTPlower</t>
+  </si>
+  <si>
+    <t>DNTPupper</t>
+  </si>
+  <si>
+    <t>Reductionslower</t>
+  </si>
+  <si>
+    <t>Reductionsupper</t>
+  </si>
+  <si>
+    <t>logDHPPlower</t>
+  </si>
+  <si>
+    <t>logDHPPupper</t>
+  </si>
+  <si>
+    <t>DHPPlower</t>
+  </si>
+  <si>
+    <t>DHPPupper</t>
+  </si>
+  <si>
+    <t>logTPlower</t>
+  </si>
+  <si>
+    <t>logDTPupper</t>
+  </si>
+  <si>
+    <t>DTPlower</t>
+  </si>
+  <si>
+    <t>DTPupper</t>
   </si>
 </sst>
 </file>
@@ -573,19 +630,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -599,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -637,7 +694,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -675,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -725,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S5" t="s">
         <v>7</v>
       </c>
@@ -739,7 +796,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -791,7 +848,7 @@
         <v>1.0831995960374603</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -826,7 +883,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -849,7 +906,7 @@
         <v>4.9999941063902922</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S9" t="s">
         <v>10</v>
       </c>
@@ -864,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>12</v>
       </c>
@@ -873,7 +930,7 @@
         <v>1.0000013952381563</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -885,7 +942,7 @@
         <v>4.9999930238189521</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -899,7 +956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -907,7 +964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -923,26 +980,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00858E82-C6EF-4FCF-9EFA-B77E98AA03E4}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -956,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -967,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -979,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="K2">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
@@ -994,7 +1051,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1074,7 @@
         <v>28</v>
       </c>
       <c r="Q3">
-        <v>482.60847308141894</v>
+        <v>200</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -1032,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1100,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.6393875814491421E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1055,7 +1112,7 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>1.0199997369126761</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -1067,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="Q4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S4" t="s">
         <v>6</v>
@@ -1082,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S5" t="s">
         <v>7</v>
       </c>
@@ -1096,38 +1153,41 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
         <f>B2+(B3-E2)/B4</f>
-        <v>-2.4842857142857144</v>
+        <v>-1.9485714285714286</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="E6">
         <f>E4*60</f>
-        <v>0.98363254886948526</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6">
         <f>H2+(H3-K2)/H4</f>
-        <v>-0.6903703703703703</v>
+        <v>-0.50518518518518518</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
       </c>
       <c r="K6">
         <f>60*K4</f>
-        <v>61.199984214760562</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
       <c r="N6">
         <f>N2+(N3*Q3)+(N4*Q4)</f>
-        <v>5.1191273664485948E-7</v>
+        <v>0.79</v>
       </c>
       <c r="P6" t="s">
         <v>27</v>
@@ -1145,30 +1205,30 @@
         <v>18</v>
       </c>
       <c r="W6">
-        <v>1.0831995960374603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
         <f>10^B6</f>
-        <v>3.278795162898284E-3</v>
+        <v>1.125715306862485E-2</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7">
         <f>10^H6</f>
-        <v>0.20399974738253523</v>
+        <v>0.31247466765083171</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
       </c>
       <c r="N7">
         <f>10^N6</f>
-        <v>1.0000011787233309</v>
+        <v>6.1659500186148231</v>
       </c>
       <c r="S7" t="s">
         <v>9</v>
@@ -1183,30 +1243,30 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
         <f>E4/B7</f>
-        <v>4.9999695009919707</v>
+        <v>8.8832406728760773</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8">
         <f>K4/H7</f>
-        <v>5.0000049019668538</v>
+        <v>3.2002594242853282</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
       </c>
       <c r="N8">
         <f>Q6/N7</f>
-        <v>4.9999941063902922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.81090504867946478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>38</v>
       </c>
@@ -1226,7 +1286,7 @@
       </c>
       <c r="T9">
         <f>T2+(T3*W3)+(T4*W4)+(T5*W5)+(T6*W6)+(T7*W7)</f>
-        <v>6.0594380951739524E-7</v>
+        <v>0.12479999999999997</v>
       </c>
       <c r="V9" t="s">
         <v>27</v>
@@ -1235,71 +1295,281 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>0.2</v>
+      </c>
       <c r="S10" t="s">
         <v>12</v>
       </c>
       <c r="T10">
         <f>10^T9</f>
-        <v>1.0000013952381563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
+        <v>1.3329074642313379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>0.18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>0.42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11">
+        <f>N6-N10</f>
+        <v>0.59000000000000008</v>
       </c>
       <c r="S11" t="s">
         <v>13</v>
       </c>
       <c r="T11">
         <f>W9/T10</f>
-        <v>4.9999930238189521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+        <v>3.7511981395373186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <f>B6-E11</f>
+        <v>-2.1285714285714286</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <f>H6-H11</f>
+        <v>-0.92518518518518511</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12">
+        <f>N6+N10</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <f>B6+E11</f>
+        <v>-1.7685714285714287</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <f>H6+H11</f>
+        <v>-8.5185185185185197E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13">
+        <f>10^N11</f>
+        <v>3.8904514499428076</v>
+      </c>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <f>10^E12</f>
+        <v>7.4375272756590418E-3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <f>10^H12</f>
+        <v>0.1187995552596377</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14">
+        <f>10^N12</f>
+        <v>9.7723722095581103</v>
+      </c>
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14">
+        <f>T9-T13</f>
+        <v>-3.5200000000000037E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <f>10^E13</f>
+        <v>1.703839065238532E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <f>10^H13</f>
+        <v>0.82189211660012995</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <f>Q6/N13</f>
+        <v>1.2851978913844313</v>
+      </c>
+      <c r="S15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15">
+        <f>T9+T13</f>
+        <v>0.28479999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f>E4/E14</f>
+        <v>13.445328842997617</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <f>K4/H14</f>
+        <v>8.4175399294592417</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16">
+        <f>Q6/N14</f>
+        <v>0.51164649614037694</v>
+      </c>
+      <c r="S16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16">
+        <f>10^T14</f>
+        <v>0.92214666512426402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <f>E4/E15</f>
+        <v>5.869098909643812</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17">
+        <f>K4/H15</f>
+        <v>1.2167046985882257</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17">
+        <f>10^T15</f>
+        <v>1.9266374595240805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <f>W9/T16</f>
+        <v>5.422130978835372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19">
+        <f>W9/T17</f>
+        <v>2.5951950509854118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B26">
         <v>0.73</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="E12">
+      <c r="E26">
         <v>170.80013219999998</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
-        <f>E12/1.03</f>
+      <c r="E27">
+        <f>E26/1.03</f>
         <v>165.82537106796113</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B28">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E14">
+      <c r="E28">
         <f>((422*165.8254)/188)</f>
         <v>372.22509999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <f>B12+E12/40</f>
+      <c r="B30">
+        <f>B26+E26/40</f>
         <v>5.0000033049999999</v>
       </c>
     </row>
